--- a/biology/Zoologie/Heliocapensis_termitophagus/Heliocapensis_termitophagus.xlsx
+++ b/biology/Zoologie/Heliocapensis_termitophagus/Heliocapensis_termitophagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliocapensis termitophagus est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliocapensis termitophagus est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État-Libre en Afrique du Sud[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État-Libre en Afrique du Sud,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'a été observée que dans des termitières en déclin, dont la reine est morte sans avoir été remplacée, de l'espèce Trinervitermes trinervoides, sa proie quasi exclusive[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'a été observée que dans des termitières en déclin, dont la reine est morte sans avoir été remplacée, de l'espèce Trinervitermes trinervoides, sa proie quasi exclusive.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace des mâles mesure de 2,3 à 2,6 mm de long sur de 1,8 à 1,9 mm et l'abdomen de 2,6 à 2,7 mm de long sur de 1,7 à 1,9 mm et la carapace des femelles de 2,7 à 2,8 mm de long sur de 1,9 à 2,1 mm et l'abdomen de 4,0 à 4,4 mm de long sur de 2,7 à 3,0 mm[3].
-De couleur brune foncée voire noire dans la zone oculaire, Heliophanus termitophagus affiche quelques motifs blancs : une tache au centre de la zone oculaire, une bande sur le bord antérieur de l'abdomen et deux à trois paires de taches sur l'abdomen[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace des mâles mesure de 2,3 à 2,6 mm de long sur de 1,8 à 1,9 mm et l'abdomen de 2,6 à 2,7 mm de long sur de 1,7 à 1,9 mm et la carapace des femelles de 2,7 à 2,8 mm de long sur de 1,9 à 2,1 mm et l'abdomen de 4,0 à 4,4 mm de long sur de 2,7 à 3,0 mm.
+De couleur brune foncée voire noire dans la zone oculaire, Heliophanus termitophagus affiche quelques motifs blancs : une tache au centre de la zone oculaire, une bande sur le bord antérieur de l'abdomen et deux à trois paires de taches sur l'abdomen.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Heliophanus termitophagus par Wesołowska et Haddad (d) en  2002. Elle est placée dans le genre Heliocapensis par Wesołowska en 2024[4].
-Heliophanus thaleri[5] a été placée en synonymie par Wesołowska en 2024[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Heliophanus termitophagus par Wesołowska et Haddad (d) en  2002. Elle est placée dans le genre Heliocapensis par Wesołowska en 2024.
+Heliophanus thaleri a été placée en synonymie par Wesołowska en 2024.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Wesołowska &amp; Haddad, 2002 : « A new termitivorous jumping spider from South Africa (Araneae Salticidae). » Tropical Zoology, vol. 15, no 2, p. 197-207  (texte intégral).</t>
         </is>
